--- a/UPLOADS_FOLDER/test3.xlsx
+++ b/UPLOADS_FOLDER/test3.xlsx
@@ -393,11 +393,11 @@
   </sheetPr>
   <dimension ref="A1:A1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.87"/>
